--- a/biology/Botanique/Leccinum/Leccinum.xlsx
+++ b/biology/Botanique/Leccinum/Leccinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Leccinum forment un genre de champignons basidiomycètes de la famille des boletacées. Ils sont regroupés en français sous le terme générique de « bolets rudes » ou « bolets raboteux » en référence à leur pied rugueux.
-Le genre comprendrait 40 à 50 espèces, différenciées par leur habitat et surtout leurs caractéristiques microscopiques. Comme le dit Michael Kuo[1], autant il est aisé pour l'amateur de voir qu'il a affaire à un Leccinum, autant déterminer son espèce exacte est quasi impossible. Ils sont tous de médiocres comestibles, bien que ceux à chapeau orangé soient plus acceptables. Néanmoins, il est préférable de les cueillir jeunes car leur chair devient vite spongieuse[2].
+Le genre comprendrait 40 à 50 espèces, différenciées par leur habitat et surtout leurs caractéristiques microscopiques. Comme le dit Michael Kuo, autant il est aisé pour l'amateur de voir qu'il a affaire à un Leccinum, autant déterminer son espèce exacte est quasi impossible. Ils sont tous de médiocres comestibles, bien que ceux à chapeau orangé soient plus acceptables. Néanmoins, il est préférable de les cueillir jeunes car leur chair devient vite spongieuse.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre tire son nom de leccio désignant le chêne vert[3]. Cette origine n'a d'intérêt qu'historique, l'habitat des Leccinum étant varié et dépassant la zone méditerranéenne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre tire son nom de leccio désignant le chêne vert. Cette origine n'a d'intérêt qu'historique, l'habitat des Leccinum étant varié et dépassant la zone méditerranéenne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils se reconnaissent tous à leur pied très élancé, sans réseau de veines, mais couvert d'aspérités ou de mèches plus ou moins fines et diversement colorées. Leur chair noircit souvent plus ou moins à la cassure et surtout à la cuisson, en raison du brunissement enzymatique, ce qui rend parfois certaines espèces peu appétissantes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se reconnaissent tous à leur pied très élancé, sans réseau de veines, mais couvert d'aspérités ou de mèches plus ou moins fines et diversement colorées. Leur chair noircit souvent plus ou moins à la cassure et surtout à la cuisson, en raison du brunissement enzymatique, ce qui rend parfois certaines espèces peu appétissantes.
 			Leccinum alaskanum
 			Leccinum albostipitatum
 			Leccinum arenicola
@@ -605,9 +621,11 @@
           <t>Classement phylogénique et aire d'indigénat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Arborescence simplifiée de la position phylogénétique des Leccinum dans les Boletaceae[5]. :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arborescence simplifiée de la position phylogénétique des Leccinum dans les Boletaceae. :
 Boletaceae ou Clade des Boletineae
 …
 Boletus
@@ -673,7 +691,9 @@
           <t>Listes des espèces selon la classification linnéenne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Leccinum aeneum  Amérique du Nord
@@ -776,7 +796,9 @@
           <t>Principales espèces européennes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales espèces sont :
 Leccinum aurantiacum, orangé (chapeau et écailles du pied), sous bouleaux et trembles, réputé le meilleur,
